--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\FangZhiPlay\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0609F7C-5A5B-4ABA-BEA1-11C3F125433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194508F-B76A-4ED5-B53C-19F35241DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,44 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>幻月</author>
-  </authors>
-  <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{799EC6C4-4F7B-4DB1-A423-A9D7D9DE5B6A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>幻月:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-每年技能增长多少级</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,142 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特质列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能成长系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命年成长系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力年成长系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗性年成长系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗性比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支配资产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介2</t>
-  </si>
-  <si>
-    <t>简介3</t>
-  </si>
-  <si>
-    <t>支配金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>traitList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assetsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillGrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hpGrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mpGrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resistanceGrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resistances</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe2</t>
-  </si>
-  <si>
-    <t>describe3</t>
-  </si>
-  <si>
     <t>prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,43 +47,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结婚日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marriageDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲尼克斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>195-3-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255-12-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000|2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厉害的小伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很厉害的小伙伴</t>
+    <t>先驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -260,6 +80,57 @@
   </si>
   <si>
     <t>portrait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl_01</t>
+  </si>
+  <si>
+    <t>魔法回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,3,102,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allSkillsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,21 +152,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -599,34 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="14.75" customWidth="1"/>
-    <col min="21" max="21" width="11.875" customWidth="1"/>
-    <col min="23" max="23" width="13.625" customWidth="1"/>
-    <col min="24" max="24" width="13.25" customWidth="1"/>
-    <col min="25" max="25" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,169 +481,106 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>49</v>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0194508F-B76A-4ED5-B53C-19F35241DEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69F20B-D039-457F-8D5E-E0FDAD5CE0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,3,3,102,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全技能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>2,3,4,5,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,4,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -508,7 +508,7 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -543,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E69F20B-D039-457F-8D5E-E0FDAD5CE0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94B985-A5C2-4ED7-ABAD-B3C1FD933DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,5,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,3,4,102,102</t>
+    <t>2,3,4,5,21,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,4,21,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F94B985-A5C2-4ED7-ABAD-B3C1FD933DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5BBD1-F34C-4E3A-941E-7A7C5A594065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,5,21,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,2,3,4,21,102,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,21,22,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5BBD1-F34C-4E3A-941E-7A7C5A594065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FB957-BE51-4EAA-99BE-21D7C023B834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,3,4,21,102,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,21,22,102</t>
+    <t>2,2,3,4,21,25,102,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,21,22,25,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FB957-BE51-4EAA-99BE-21D7C023B834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA13AE-9F36-44B2-9E03-EA263F1BCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,3,4,21,25,102,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3,4,21,22,25,102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,3,4,25,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA13AE-9F36-44B2-9E03-EA263F1BCE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF89ACC-DEA3-4C1A-A29F-F19F49A50E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,2,3,4,25,102,102</t>
+    <t>2,4,25,102,103,104,105,106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
@@ -563,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF89ACC-DEA3-4C1A-A29F-F19F49A50E7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C61EFF-E7FC-4546-A462-50998BEF49BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,21,22,25,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,25,102,103,104,105,106</t>
+    <t>2,4,102,103,105,107,108,109,110,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,102,103,105,107,108,109,110,200,111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C61EFF-E7FC-4546-A462-50998BEF49BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161B069-158B-4D41-B185-1C52E0814D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,102,103,105,107,108,109,110,200,111</t>
+    <t>2,3,4,22,102,105,108,109,110,200,111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161B069-158B-4D41-B185-1C52E0814D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09682432-6FA4-4B2A-A73C-0AC474D92A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,22,102,105,108,109,110,200,111</t>
+    <t>2,3,4,22,102,105,108,109,110,200,111,211</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09682432-6FA4-4B2A-A73C-0AC474D92A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398294A-C384-49F5-A2F6-22EF2B6C64BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,22,102,105,108,109,110,200,111,211</t>
+    <t>2,3,4,22,102,102,105,108,109,110,211,112,113</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398294A-C384-49F5-A2F6-22EF2B6C64BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67D1245-3243-4AC5-B4FE-CA016C14A250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,4,102,103,105,107,108,109,110,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3,4,22,102,102,105,108,109,110,211,112,113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,102,33,103,105,107,108,109,110,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67D1245-3243-4AC5-B4FE-CA016C14A250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96DB9E6-2E46-4CB1-A3DD-65E6BF73F862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,26 @@
   </si>
   <si>
     <t>2,4,102,33,103,105,107,108,109,110,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始圣遗物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义的勇士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人#996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惑众的魔女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,14 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
@@ -473,7 +494,7 @@
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +531,11 @@
       <c r="L1" t="s">
         <v>22</v>
       </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -545,8 +569,11 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -576,6 +603,21 @@
       </c>
       <c r="L3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96DB9E6-2E46-4CB1-A3DD-65E6BF73F862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736A9C2-4C19-4448-83D1-7B74DC66CD2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,6 +604,9 @@
       <c r="L3" t="s">
         <v>26</v>
       </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736A9C2-4C19-4448-83D1-7B74DC66CD2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,161 +17,466 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>角色预设</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>基础攻击力</t>
+  </si>
+  <si>
+    <t>初始技能ID</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>魔法回复</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>全技能列表</t>
+  </si>
+  <si>
+    <t>初始圣遗物</t>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
   </si>
   <si>
     <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色预设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>reMp</t>
+  </si>
+  <si>
+    <t>cirt</t>
+  </si>
+  <si>
+    <t>allSkillsList</t>
+  </si>
+  <si>
+    <t>relic</t>
   </si>
   <si>
     <t>先驱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portrait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Girl_01</t>
   </si>
   <si>
-    <t>魔法回复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reMp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cirt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全技能列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allSkillsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,22,102,102,105,108,109,110,211,112,113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,102,33,103,105,107,108,109,110,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始圣遗物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>2,3,2,2,2,102,102,2</t>
+  </si>
+  <si>
+    <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
   </si>
   <si>
     <t>正义的勇士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机器人#996</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>惑众的魔女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,24 +484,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +836,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -291,7 +871,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -465,36 +1045,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="8" max="8" width="49.5" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,86 +1077,86 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -593,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -602,30 +1177,30 @@
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -100,7 +100,7 @@
     <t>2,3,2,2,2,102,102,2</t>
   </si>
   <si>
-    <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110</t>
+    <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,211</t>
   </si>
   <si>
     <t>正义的勇士</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,18 +131,116 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,129 +252,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,31 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,151 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,30 +482,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,26 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -577,161 +533,208 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1053,8 +1056,8 @@
   <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" ht="27" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -1176,7 +1179,7 @@
       <c r="K3">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M3">

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82033FB-F0C0-4033-9B74-D3BAF10DB680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,10 +97,10 @@
     <t>Girl_01</t>
   </si>
   <si>
-    <t>2,3,2,2,2,102,102,2</t>
-  </si>
-  <si>
-    <t>2,3,4,25,33,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,211</t>
+    <t>2,3,2,2,2,102,102</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
   </si>
   <si>
     <t>正义的勇士</t>
@@ -121,8 +115,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,21 +131,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,9 +484,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -163,17 +736,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,19 +1048,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -455,7 +1072,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -534,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="27" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -569,24 +1186,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17E2852-2B1D-4658-BA7B-528A943CF21C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF0779-690D-4924-AD6A-670A3B844C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/shangmo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy/xieerke_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,33,103,104,106,107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,15 +468,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="6" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="49.5" customWidth="1"/>
     <col min="10" max="10" width="13.625" customWidth="1"/>
@@ -582,22 +599,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF0779-690D-4924-AD6A-670A3B844C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -103,46 +97,50 @@
     <t>Girl_01</t>
   </si>
   <si>
+    <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+  </si>
+  <si>
+    <t>正义的勇士</t>
+  </si>
+  <si>
+    <t>Enemy/xieerke_1</t>
+  </si>
+  <si>
     <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
+    <t>机器人#996</t>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
   </si>
   <si>
-    <t>正义的勇士</t>
-  </si>
-  <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
     <t>惑众的魔女</t>
   </si>
   <si>
-    <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy/shangmo_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/ciweimo_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy/xieerke_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25,33,103,104,106,107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,29 +149,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,28 +495,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,19 +1060,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -485,7 +1085,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -564,7 +1164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -575,7 +1175,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -583,8 +1183,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -592,14 +1192,14 @@
       <c r="K3">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -607,10 +1207,10 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -619,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -627,25 +1227,25 @@
       <c r="K4">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -654,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>0.2</v>
@@ -662,25 +1262,25 @@
       <c r="K5">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -689,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>0.2</v>
@@ -697,16 +1297,16 @@
       <c r="K6">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -100,7 +100,7 @@
     <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
+    <t>2,3,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83</t>
   </si>
   <si>
     <t>正义的勇士</t>
@@ -150,6 +150,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -157,53 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,30 +179,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,9 +224,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,6 +253,45 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,22 +550,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,21 +560,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,145 +599,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -100,7 +100,7 @@
     <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
-    <t>2,3,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83</t>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
     <t>正义的勇士</t>
@@ -150,21 +150,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +218,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,17 +271,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,45 +292,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,30 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,7 +526,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +551,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,17 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +611,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A693DE31-B067-4DC7-BD3E-41B382D847B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE903C2-C192-421C-ACFC-6562AF152CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="840" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Enemy/shangmo_1</t>
-  </si>
-  <si>
-    <t>25,33,103,104,106,107</t>
   </si>
   <si>
     <r>
@@ -160,6 +157,10 @@
       </rPr>
       <t>,138,139,140,141,142</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,33,103,300,300,300,300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +497,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -716,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>0.2</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE903C2-C192-421C-ACFC-6562AF152CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,25 +109,14 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
-    <t>Enemy/ciweimo_1</t>
-  </si>
-  <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
-  </si>
-  <si>
-    <t>惑众的魔女</t>
-  </si>
-  <si>
-    <t>Enemy/shangmo_1</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>156,</t>
     </r>
     <r>
@@ -151,24 +134,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>,138,139,140,141,142</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人#996</t>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+  </si>
+  <si>
+    <t>2,3,2,2,2,102,102</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
+  </si>
+  <si>
+    <t>惑众的魔女</t>
+  </si>
+  <si>
+    <t>Enemy/shangmo_1</t>
   </si>
   <si>
     <t>25,33,103,300,300,300,300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,27 +184,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,29 +534,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,19 +1101,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -513,7 +1126,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -592,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -620,14 +1233,14 @@
       <c r="K3">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="42.75" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -646,8 +1259,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -655,14 +1268,14 @@
       <c r="K4">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
@@ -682,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>0.2</v>
@@ -690,22 +1303,22 @@
       <c r="K5">
         <v>30</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>34</v>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -725,16 +1338,16 @@
       <c r="K6">
         <v>30</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
+      <c r="L6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3534111-842B-4052-9B56-A70CD65E8B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,14 +171,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,345 +188,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,316 +210,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1101,19 +490,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -1126,7 +515,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:13">
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1231,16 +620,16 @@
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="42.75" spans="1:13">
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1259,23 +648,23 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="J4">
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:13">
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1301,16 +690,16 @@
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>30</v>
-      </c>
-      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:13">
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1336,9 +725,9 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="M6">
@@ -1346,8 +735,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3534111-842B-4052-9B56-A70CD65E8B20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,45 +109,16 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>156,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,138,139,140,141,142</t>
-    </r>
+    <t>2,3,2,2,2,102,102</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
     <t>机器人#996</t>
   </si>
   <si>
     <t>Enemy/ciweimo_1</t>
-  </si>
-  <si>
-    <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
@@ -171,8 +136,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,25 +155,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -210,29 +498,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,19 +1063,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -515,7 +1088,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +1129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -594,7 +1167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -620,7 +1193,7 @@
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -629,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -648,31 +1221,31 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
       <c r="J4">
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -684,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>35</v>
@@ -699,7 +1272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
@@ -725,7 +1298,7 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>35</v>
@@ -735,8 +1308,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -112,7 +112,7 @@
     <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
     <t>机器人#996</t>
@@ -130,7 +130,10 @@
     <t>Enemy/shangmo_1</t>
   </si>
   <si>
-    <t>25,33,103,300,300,300,300</t>
+    <t>300,301,302,304,305,306,307,308</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
 </sst>
 </file>
@@ -138,9 +141,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -152,35 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -189,70 +163,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,31 +285,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +308,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,32 +502,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,18 +547,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1291,7 +1294,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J6">
@@ -1301,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>11</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -109,16 +109,19 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
+    <t>130,131,132,133,134,135,136</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
+  </si>
+  <si>
+    <t>机器人#996</t>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+  </si>
+  <si>
     <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
-  </si>
-  <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
-    <t>Enemy/ciweimo_1</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
@@ -141,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -155,6 +158,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -163,81 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -246,24 +241,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,15 +272,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,11 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,26 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,11 +577,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +608,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -617,10 +620,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,121 +632,121 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1078,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1224,7 +1227,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J4">
@@ -1260,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>0.2</v>
@@ -1269,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>11</v>
@@ -1280,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6">
         <v>0.2</v>
@@ -1304,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M6">
         <v>11</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E7A6BC-FFCF-40EC-8640-B43A573FC72C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F34334A-9F2A-4025-95C1-647D93B8EAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="1920" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="2865" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>300,301,302,304,305,306,307,308,310,311,312,313</t>
+    <t>305,305,305,306,308,310,311,312,313</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +479,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F34334A-9F2A-4025-95C1-647D93B8EAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2865" windowWidth="20325" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +109,7 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>130,131,132,133,134,135,136</t>
+    <t>131,81,82</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -139,18 +133,23 @@
     <t>Enemy/shangmo_1</t>
   </si>
   <si>
+    <t>305,305,305,306,308,310,311,312,313</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
-  </si>
-  <si>
-    <t>305,305,305,306,308,310,311,312,313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,29 +159,344 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -190,29 +504,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -470,19 +1070,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -495,7 +1095,7 @@
     <col min="12" max="12" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +1136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -574,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:13">
       <c r="A3">
         <v>0</v>
       </c>
@@ -602,14 +1202,14 @@
       <c r="K3">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -635,16 +1235,16 @@
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:13">
       <c r="A5">
         <v>2</v>
       </c>
@@ -672,14 +1272,14 @@
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:13">
       <c r="A6">
         <v>3</v>
       </c>
@@ -698,8 +1298,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="J6">
         <v>0.2</v>
@@ -707,16 +1307,16 @@
       <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
+      <c r="L6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>131,81,82</t>
+    <t>131,81,82,130,135</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -133,7 +133,7 @@
     <t>Enemy/shangmo_1</t>
   </si>
   <si>
-    <t>305,305,305,306,308,310,311,312,313</t>
+    <t>305,300,310,304,306,307,302</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,59 +159,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,20 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -249,54 +296,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,19 +311,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,24 +389,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -365,19 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,55 +419,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,49 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +502,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,24 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -558,21 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,16 +560,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A195C711-81E6-402F-B9FF-94DDA87F303C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D486F0-13A7-4D1A-80EA-7A32125CF549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,11 +139,11 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>131,81,82,130,135,136</t>
+    <t>300,306,302,307,311,312,313</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300,306,302,307,311,312,313</t>
+    <t>81,82,83,130,135,136</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,13 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -471,7 +480,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -620,11 +629,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -659,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="J5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -691,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <v>0</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D486F0-13A7-4D1A-80EA-7A32125CF549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F40025-8F86-4296-9477-1CB70049E338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>81,82,83,130,135,136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流派列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +214,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,9 +507,10 @@
     <col min="10" max="10" width="13.625" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="51.375" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +550,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -574,8 +591,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -609,8 +629,11 @@
       <c r="M3">
         <v>11</v>
       </c>
+      <c r="N3" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -644,8 +667,11 @@
       <c r="M4">
         <v>11</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -679,8 +705,11 @@
       <c r="M5">
         <v>11</v>
       </c>
+      <c r="N5" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -713,6 +742,9 @@
       </c>
       <c r="M6">
         <v>11</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F40025-8F86-4296-9477-1CB70049E338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +55,9 @@
     <t>初始圣遗物</t>
   </si>
   <si>
+    <t>流派列表</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
     <t>relic</t>
   </si>
   <si>
+    <t>buildList</t>
+  </si>
+  <si>
     <t>先驱</t>
   </si>
   <si>
@@ -109,12 +109,18 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
     <t>正义的勇士</t>
   </si>
   <si>
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
+    <t>2,3,2,2,2,102,102</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
@@ -124,46 +130,38 @@
     <t>Enemy/ciweimo_1</t>
   </si>
   <si>
-    <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
   </si>
   <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
     <t>惑众的魔女</t>
   </si>
   <si>
     <t>Enemy/shangmo_1</t>
   </si>
   <si>
+    <t>300,306,302,307,311,312,313</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>300,306,302,307,311,312,313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81,82,83,130,135,136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流派列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>9,10,11,12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,29 +170,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,31 +516,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,19 +1084,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -510,7 +1110,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,59 +1151,59 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -615,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>0.3</v>
@@ -623,25 +1223,25 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>43</v>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -652,8 +1252,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>40</v>
+      <c r="H4" t="s">
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -661,25 +1261,25 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>43</v>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -699,25 +1299,25 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>43</v>
+      <c r="N5" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -728,8 +1328,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -737,19 +1337,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>38</v>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>43</v>
+      <c r="N6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -118,16 +118,19 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
+    <t>3008,2,2,102,102,140</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163,3001,3002,3003,3004,3005,3006,3007,3008</t>
+  </si>
+  <si>
+    <t>机器人#996</t>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+  </si>
+  <si>
     <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
-  </si>
-  <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
-    <t>Enemy/ciweimo_1</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
@@ -158,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,91 +174,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,15 +196,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +241,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +262,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,19 +326,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,163 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +520,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,43 +547,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,9 +585,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1233,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:14">
+    <row r="4" ht="71.25" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J4">
@@ -1291,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -1300,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:14">
@@ -1314,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1329,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -1338,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -118,10 +118,10 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>3008,2,2,102,102,140</t>
-  </si>
-  <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163,3001,3002,3003,3004,3005,3006,3007,3008</t>
+    <t>2,2,2,2,3010,4,3011,3012,211</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
     <t>机器人#996</t>
@@ -161,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,14 +174,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +288,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +296,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -212,106 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -540,6 +555,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,40 +617,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1236,7 +1236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="71.25" spans="1:14">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -118,7 +118,7 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>2,2,2,2,3010,4,3011,3012,211</t>
+    <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Enemy/ciweimo_1</t>
-  </si>
-  <si>
-    <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
@@ -159,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,6 +181,44 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,16 +230,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,84 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +323,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,169 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,17 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,21 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,15 +582,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -617,151 +590,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,7 +1093,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1255,7 +1252,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>34</v>
       </c>
       <c r="J4">
@@ -1294,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -1303,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:14">
@@ -1317,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1332,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -1341,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -156,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -170,34 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -206,9 +178,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +239,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,46 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +283,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,49 +323,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,25 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,55 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -590,40 +614,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,7 +632,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,124 +641,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +167,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +200,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -193,12 +229,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,22 +284,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,59 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,6 +323,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,175 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +565,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,30 +597,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -614,16 +605,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -118,16 +118,19 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
+    <t>2,3,2,2,111,102,102</t>
+  </si>
+  <si>
+    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
+  </si>
+  <si>
+    <t>机器人#996</t>
+  </si>
+  <si>
+    <t>Enemy/ciweimo_1</t>
+  </si>
+  <si>
     <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
-    <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
-  </si>
-  <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
-    <t>Enemy/ciweimo_1</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,14 +174,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,15 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,20 +303,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -238,77 +312,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,30 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,16 +545,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +585,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -606,11 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1291,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -1300,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:14">
@@ -1314,10 +1317,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -1329,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -1338,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -118,7 +118,7 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>2,3,2,2,111,102,102</t>
+    <t>2,2,4,111,102,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,70 +180,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,7 +212,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +257,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,16 +279,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +326,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,15 +549,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,9 +570,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,186 +617,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -118,7 +118,7 @@
     <t>Enemy/xieerke_1</t>
   </si>
   <si>
-    <t>2,2,4,111,102,102,102</t>
+    <t>2,2,4,102,102,102,2,2</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -159,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -174,6 +174,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -181,7 +188,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,128 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,19 +326,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,145 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,21 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +579,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,16 +602,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35054BD-5577-4945-81FA-87440AC3904C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD307A9-89B2-4D4C-B194-68D884FE4AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Girl_01</t>
   </si>
   <si>
-    <t>130,131,132,133,134,135,136,137,138,139,140,141,142</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
@@ -158,6 +155,10 @@
   </si>
   <si>
     <t>137,81,81,81,81,82,137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +487,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,22 +609,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J3">
-        <v>0.3</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
@@ -631,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -646,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -655,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -669,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -693,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -707,10 +708,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -722,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -731,18 +732,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD307A9-89B2-4D4C-B194-68D884FE4AD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F0B21-2AFE-4AA0-AAA1-D08E01484E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,18 +118,12 @@
     <t>正义的勇士</t>
   </si>
   <si>
-    <t>Enemy/xieerke_1</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
     <t>机器人#996</t>
   </si>
   <si>
-    <t>Enemy/ciweimo_1</t>
-  </si>
-  <si>
     <t>2,3,2,2,2,102,102</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
   </si>
   <si>
     <t>惑众的魔女</t>
-  </si>
-  <si>
-    <t>Enemy/shangmo_1</t>
   </si>
   <si>
     <t>300,306,302,307,311,312,313</t>
@@ -160,6 +151,16 @@
   <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Char_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Char_02</t>
+  </si>
+  <si>
+    <t>Character/Char_03</t>
   </si>
 </sst>
 </file>
@@ -486,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -635,7 +636,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -647,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -656,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M4">
         <v>11</v>
@@ -670,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -685,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -694,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -708,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -723,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -732,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F0B21-2AFE-4AA0-AAA1-D08E01484E24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6545A0-E404-4D9D-816C-65454AF5CBB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2190" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>机器人#996</t>
   </si>
   <si>
-    <t>2,3,2,2,2,102,102</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
   </si>
   <si>
@@ -136,38 +133,44 @@
     <t>惑众的魔女</t>
   </si>
   <si>
-    <t>300,306,302,307,311,312,313</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>9,10,11,12</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Char_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Char_02</t>
+  </si>
+  <si>
+    <t>Character/Char_03</t>
   </si>
   <si>
     <t>137,81,81,81,81,82,137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
+    <t>2,3,2,2,2,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Char_01</t>
+    <t>9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Character/Char_02</t>
-  </si>
-  <si>
-    <t>Character/Char_03</t>
+    <t>301,350,301,301,25,33,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +181,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -210,6 +221,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -636,7 +648,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -648,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -674,7 +686,7 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -686,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -695,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -709,13 +721,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -724,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -733,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>40</v>
+      <c r="N6" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6545A0-E404-4D9D-816C-65454AF5CBB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E177F9-F7E7-4D1F-BA71-8E6E33DDF195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2190" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2655" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>先驱</t>
   </si>
   <si>
-    <t>Girl_01</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
@@ -163,6 +160,10 @@
   </si>
   <si>
     <t>301,350,301,301,25,33,350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Char_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +501,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -610,7 +611,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -622,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -631,13 +632,13 @@
         <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
@@ -645,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -660,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -669,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -683,10 +684,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -698,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -707,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -721,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -736,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -745,13 +746,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E177F9-F7E7-4D1F-BA71-8E6E33DDF195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDABA6-49C3-4219-9D95-91665F10B7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="2655" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,6 +182,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -501,7 +502,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>43</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDABA6-49C3-4219-9D95-91665F10B7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26FD6E3-193D-41D6-96A2-EFAF008D652E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,2,2,2,102,102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +160,10 @@
   </si>
   <si>
     <t>Character/Char_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,84,2,2,2,102,102,102,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -674,7 +674,7 @@
         <v>31</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>29</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -750,10 +750,10 @@
         <v>36</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26FD6E3-193D-41D6-96A2-EFAF008D652E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD8FBA-78F7-4949-8861-D21FB0E77B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="3060" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,84,2,2,2,102,102,102,102,102</t>
+    <t>2,84,2,102,141,142,142,141</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD8FBA-78F7-4949-8861-D21FB0E77B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A47BF-402F-4E64-8D40-6FBB17E2454A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="3060" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,84,2,102,141,142,142,141</t>
+    <t>2,84,2,2,102,2,102,102,102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +502,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36A47BF-402F-4E64-8D40-6FBB17E2454A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6C1C0-2768-4CE4-A79E-AE58663ECFD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,84,2,2,102,2,102,102,102</t>
+    <t>2,84,139,139,139,2,142,142,142</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -750,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>42</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6C1C0-2768-4CE4-A79E-AE58663ECFD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C5EA9-6468-4EC2-8CAA-D21C8D7B4504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3300" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,15 +155,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>301,350,301,301,25,33,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Character/Char_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2,84,139,139,139,2,142,142,142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>351,350,351,350,25,33,350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -750,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>42</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135C5EA9-6468-4EC2-8CAA-D21C8D7B4504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3300" windowWidth="27165" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +100,12 @@
     <t>先驱</t>
   </si>
   <si>
+    <t>Character/Char_00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
@@ -115,12 +115,24 @@
     <t>正义的勇士</t>
   </si>
   <si>
+    <t>Character/Char_01</t>
+  </si>
+  <si>
+    <t>2,84,2,2,2,102,102,102</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
     <t>机器人#996</t>
   </si>
   <si>
+    <t>Character/Char_02</t>
+  </si>
+  <si>
+    <t>137,81,81,81,81,82,137</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122</t>
   </si>
   <si>
@@ -130,48 +142,29 @@
     <t>惑众的魔女</t>
   </si>
   <si>
+    <t>Character/Char_03</t>
+  </si>
+  <si>
+    <t>351,350,351,350,25,33,350</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Char_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Char_02</t>
-  </si>
-  <si>
-    <t>Character/Char_03</t>
-  </si>
-  <si>
-    <t>137,81,81,81,81,82,137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9,10,11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/Char_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,84,139,139,139,2,142,142,142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>351,350,351,350,25,33,350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,30 +173,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,31 +519,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -493,19 +1087,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -519,7 +1113,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -604,7 +1198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -612,7 +1206,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -624,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -632,25 +1226,25 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
+      <c r="N3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -662,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -670,25 +1264,25 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M4">
         <v>47</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
+      <c r="N4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -700,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -708,25 +1302,25 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>34</v>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -737,8 +1331,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
+      <c r="H6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -746,19 +1340,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>36</v>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="M6">
         <v>60</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>42</v>
+      <c r="N6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,6 +173,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -181,7 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +217,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,111 +309,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,13 +326,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,132 +494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,18 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -549,6 +540,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,27 +583,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -617,16 +606,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1268,7 +1268,7 @@
         <v>35</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>31</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB726CC-AC6D-4429-926D-1DB038AF1A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A7F2D-E356-4642-8368-1AB720D02BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,6 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>351,350,351,350,25,33,350</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
@@ -159,6 +156,10 @@
   </si>
   <si>
     <t>暂时无用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>351,350,25,33,355,355,356</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -589,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -732,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -741,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6">
         <v>60</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A7F2D-E356-4642-8368-1AB720D02BDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8DFD2-7A74-4393-A87F-09B5683DD458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="4260" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
-    <t>机器人#996</t>
-  </si>
-  <si>
     <t>Character/Char_02</t>
   </si>
   <si>
@@ -159,8 +156,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>351,350,25,33,355,355,356</t>
+    <t>机器人996号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357,358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>358,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59,359</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -217,8 +314,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,8 +645,8 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>44</v>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -590,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -680,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -695,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -704,13 +801,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
@@ -718,10 +815,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -732,7 +829,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J6">
@@ -742,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6">
         <v>60</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC8DFD2-7A74-4393-A87F-09B5683DD458}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="4260" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,6 +49,9 @@
     <t>暴击率</t>
   </si>
   <si>
+    <t>暂时无用</t>
+  </si>
+  <si>
     <t>初始圣遗物</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>cirt</t>
   </si>
   <si>
+    <t>initialUnlockSkillsList</t>
+  </si>
+  <si>
     <t>relic</t>
   </si>
   <si>
@@ -124,6 +124,9 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
+    <t>机器人996号</t>
+  </si>
+  <si>
     <t>Character/Char_02</t>
   </si>
   <si>
@@ -142,129 +145,26 @@
     <t>Character/Char_03</t>
   </si>
   <si>
+    <t>357,357,84,358,358,359,359</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
     <t>9,10,11</t>
-  </si>
-  <si>
-    <t>initialUnlockSkillsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时无用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人996号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>357,358</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>358,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>59,359</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,29 +173,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,31 +526,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -585,19 +1095,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -611,7 +1121,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,66 +1155,66 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -716,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -724,25 +1234,25 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>29</v>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -754,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -762,25 +1272,25 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
+      <c r="L4" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
+      <c r="N4" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -792,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -800,25 +1310,25 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>36</v>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>37</v>
+      <c r="N5" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -829,8 +1339,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>45</v>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -838,19 +1348,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>40</v>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="M6">
         <v>60</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>41</v>
+      <c r="N6" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB417EAE-73EB-47CC-9BDA-590C17B3FFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="11670"/>
+    <workbookView xWindow="-1665" yWindow="1560" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,26 +151,86 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>357,357,84,358,358,359,359</t>
-  </si>
-  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
     <t>9,10,11</t>
+  </si>
+  <si>
+    <r>
+      <t>305</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,305,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>357,358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>358,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59,4113,4113</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,344 +247,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -526,318 +276,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1095,19 +558,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -1121,7 +584,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +618,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1165,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:14">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1234,17 +697,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:14">
+    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1272,17 +735,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:14">
+    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1310,17 +773,17 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:14">
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1339,8 +802,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
+      <c r="H6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -1348,19 +811,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>44</v>
+      <c r="L6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="M6">
         <v>60</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>45</v>
+      <c r="N6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB417EAE-73EB-47CC-9BDA-590C17B3FFCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1665" yWindow="1560" windowWidth="26985" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28455" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,86 +145,26 @@
     <t>Character/Char_03</t>
   </si>
   <si>
+    <t>359,84,357,358,358,359,357,357</t>
+  </si>
+  <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>9,10,11</t>
-  </si>
-  <si>
-    <r>
-      <t>305</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,305,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>357,358</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>358,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>59,4113,4113</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1,9,10,11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,35 +174,344 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -276,31 +519,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -558,19 +1086,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -584,7 +1112,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +1146,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -628,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -669,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -697,17 +1225,17 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -735,17 +1263,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -773,17 +1301,17 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -802,8 +1330,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>45</v>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -811,19 +1339,19 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>43</v>
+      <c r="L6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>60</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,9 +174,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,12 +212,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -202,8 +226,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +265,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -226,48 +303,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,44 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,36 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +539,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -579,15 +584,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28455" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>Character/Char_01</t>
   </si>
   <si>
-    <t>2,84,2,2,2,102,102,102</t>
+    <t>2,84,2,2,2,102,102,102,2,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -145,7 +145,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>359,84,357,358,358,359,357,357</t>
+    <t>359,84,357,358,358,359,357,357,358,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -160,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +188,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -195,11 +210,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,8 +286,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,45 +304,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,44 +314,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +517,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,6 +570,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,39 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -602,31 +617,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -145,7 +145,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>359,84,357,358,358,359,357,357,358,357</t>
+    <t>4163,359,4154,359,359,359,4153</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,14 +174,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,123 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,103 +326,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,79 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,11 +520,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,36 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -582,186 +617,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C204A7-9D2C-4787-AE86-035D1BB1FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,20 +157,15 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>1,9,10,11</t>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,345 +174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -519,251 +196,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -774,61 +209,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,19 +477,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -1112,7 +503,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:14">
+    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1235,7 +626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:14">
+    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1267,13 +658,13 @@
         <v>35</v>
       </c>
       <c r="M4">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:14">
+    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1311,7 +702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:14">
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1343,15 +734,15 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C204A7-9D2C-4787-AE86-035D1BB1FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,21 +145,26 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>4163,359,4154,359,359,359,4153</t>
+    <t>359,359,359,4163,4154</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
     <t>9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,21 +173,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -196,9 +519,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -209,17 +774,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -477,19 +1086,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -503,7 +1112,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -588,7 +1197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -626,7 +1235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -658,13 +1267,13 @@
         <v>35</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -702,7 +1311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -734,15 +1343,15 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -145,7 +145,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>359,359,359,4163,4154</t>
+    <t>4082,4082,4082,4082</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -174,21 +174,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,17 +218,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,22 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -256,9 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,14 +289,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,36 +312,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,43 +326,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,133 +494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +520,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,24 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,23 +577,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +608,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1343,7 +1343,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,8 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>4082,4082,4082,4082</t>
+    <t xml:space="preserve">
+359,84,357,358,358,359,357,357,358,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -161,8 +162,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -174,6 +175,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -182,7 +190,99 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,112 +296,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -309,7 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -326,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +518,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,11 +556,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,41 +613,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -623,152 +624,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1095,7 +1098,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1343,7 +1346,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t xml:space="preserve">
-359,84,357,358,358,359,357,357,358,357</t>
+    <t>4217,4217,4217,4217</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -160,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -175,14 +174,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +226,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,90 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -310,13 +316,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -327,25 +326,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,157 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,11 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,30 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -591,6 +572,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,25 +617,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +635,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1346,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -145,7 +145,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>4217,4217,4217,4217</t>
+    <t>359,84,357,358,358,359,357,357,358,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -159,8 +159,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -174,92 +174,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +255,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -278,33 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,43 +326,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,127 +464,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,11 +522,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,17 +544,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,27 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,151 +593,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1345,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>45</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,29 +189,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +211,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,15 +271,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,68 +316,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,54 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,6 +546,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,11 +579,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,10 +635,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,121 +647,121 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,8 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>359,84,357,358,358,359,357,357,358,357</t>
+    <t xml:space="preserve">
+359,84,357,358,358,359,357,357,358,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -181,6 +182,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -188,8 +203,100 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,112 +317,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,37 +327,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,145 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,16 +533,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,25 +590,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,8 +1097,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1324,7 +1325,7 @@
         <v>42</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F6">
         <v>10</v>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCCCF73-09D3-49D1-9A0A-3D945B4AF8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,6 +109,9 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142</t>
   </si>
   <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
     <t>正义的勇士</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
   </si>
   <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
     <t>机器人996号</t>
   </si>
   <si>
@@ -148,29 +148,26 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t xml:space="preserve">
-359,84,357,358,358,359,357,357,358,357</t>
+    <t>4256,4256,102,102,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
     <t>9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,21 +176,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,9 +522,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -216,17 +779,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,19 +1091,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
@@ -510,7 +1117,7 @@
     <col min="13" max="13" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
         <v>14</v>
       </c>
@@ -595,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -630,18 +1237,18 @@
         <v>11</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -653,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <v>0.3</v>
@@ -662,24 +1269,24 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4">
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -691,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <v>0.3</v>
@@ -700,24 +1307,24 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5">
         <v>11</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>45</v>
@@ -729,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>0.3</v>
@@ -738,18 +1345,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M6">
         <v>11</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>4256,4256,102,102,102,102</t>
+    <t>359,84,357,358,358,359,357,357,358,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -176,6 +176,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -183,8 +198,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,113 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -312,13 +319,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -335,37 +335,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,139 +473,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,25 +538,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -588,21 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -620,16 +596,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
   </si>
   <si>
-    <t>9,10,11,12</t>
+    <t>9,10,11</t>
   </si>
 </sst>
 </file>
@@ -178,7 +178,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,84 +191,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,23 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +245,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -319,6 +289,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,19 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,19 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,139 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,32 +523,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,29 +560,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,8 +600,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,8 +1099,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="29040" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>Character/Char_03</t>
   </si>
   <si>
-    <t>359,84,357,358,358,359,357,357,358,357</t>
+    <t>74,84,33,25,25,104,106,357,106,357</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,300,301,302,304,305,306,307,308</t>
@@ -162,8 +162,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -176,41 +176,125 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,37 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,60 +315,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,49 +329,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,133 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,6 +573,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -582,21 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -605,31 +620,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,8 +1099,8 @@
   <sheetPr/>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>

--- a/Client/Assets/Data/Character.xlsx
+++ b/Client/Assets/Data/Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="10395"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <t>Character/Char_01</t>
   </si>
   <si>
-    <t>2,84,2,2,2,102,102,102,2,102</t>
+    <t>2,84,2,2,2,102,102,102</t>
   </si>
   <si>
     <t>2,3,4,22,102,103,105,107,108,109,110,111,112,113,114,115,116,118,119,120,121,122,130,131,132,133,134,135,136,137,138,139,140,141,142,80,81,82,83,143,144,145,146,147,148,149,150,151,152,153,154,155,156,159,160,161,162,163</t>
@@ -162,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,94 +176,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,14 +267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -291,18 +284,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,41 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,30 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,8 +556,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
